--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-5-外部設計書(画面・帳票仕様)_ショッピング_会員情報変更.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-5-外部設計書(画面・帳票仕様)_ショッピング_会員情報変更.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38CE10-3B2C-4C7B-AEE7-4BEEB746376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515" activeTab="1"/>
+    <workbookView xWindow="-18000" yWindow="1755" windowWidth="11685" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W25" authorId="0" shapeId="0">
+    <comment ref="W25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W43" authorId="0" shapeId="0">
+    <comment ref="W43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -882,20 +883,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -915,14 +919,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -934,9 +938,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,18 +958,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -981,8 +970,14 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -990,17 +985,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1042,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1109,7 +1116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1177,7 +1190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1309,6 +1328,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1344,6 +1380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1519,98 +1572,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:IT215"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AD98" sqref="AD98:AL98"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1020" width="2.625" style="4" customWidth="1"/>
+    <col min="1" max="1020" width="2.6328125" style="4" customWidth="1"/>
     <col min="1021" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
       <c r="Z1" s="27" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="27"/>
       <c r="AB1" s="27"/>
       <c r="AC1" s="27"/>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
       <c r="AM1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="AN1" s="27"/>
       <c r="AO1" s="27"/>
-      <c r="AP1" s="28" t="s">
+      <c r="AP1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
       <c r="AW1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="AX1" s="27"/>
       <c r="AY1" s="27"/>
-      <c r="AZ1" s="30" t="s">
+      <c r="AZ1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -1809,68 +1862,68 @@
       <c r="IS1" s="8"/>
       <c r="IT1" s="8"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
       <c r="Z2" s="27"/>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
       <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
       <c r="AM2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="AN2" s="27"/>
       <c r="AO2" s="27"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
       <c r="AW2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="AX2" s="27"/>
       <c r="AY2" s="27"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2069,7 +2122,7 @@
       <c r="IS2" s="8"/>
       <c r="IT2" s="8"/>
     </row>
-    <row r="3" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2325,72 +2378,72 @@
       <c r="IS3" s="8"/>
       <c r="IT3" s="8"/>
     </row>
-    <row r="4" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="29" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="37" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="29" t="s">
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31"/>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2589,64 +2642,64 @@
       <c r="IS4" s="8"/>
       <c r="IT4" s="8"/>
     </row>
-    <row r="5" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
+    <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="31"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="31"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -2845,7 +2898,7 @@
       <c r="IS5" s="8"/>
       <c r="IT5" s="8"/>
     </row>
-    <row r="6" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3101,7 +3154,7 @@
       <c r="IS6" s="8"/>
       <c r="IT6" s="8"/>
     </row>
-    <row r="7" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3357,7 +3410,7 @@
       <c r="IS7" s="8"/>
       <c r="IT7" s="8"/>
     </row>
-    <row r="8" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3613,7 +3666,7 @@
       <c r="IS8" s="8"/>
       <c r="IT8" s="8"/>
     </row>
-    <row r="9" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -3869,7 +3922,7 @@
       <c r="IS9" s="8"/>
       <c r="IT9" s="8"/>
     </row>
-    <row r="10" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4125,7 +4178,7 @@
       <c r="IS10" s="8"/>
       <c r="IT10" s="8"/>
     </row>
-    <row r="11" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4381,7 +4434,7 @@
       <c r="IS11" s="8"/>
       <c r="IT11" s="8"/>
     </row>
-    <row r="12" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4637,7 +4690,7 @@
       <c r="IS12" s="8"/>
       <c r="IT12" s="8"/>
     </row>
-    <row r="13" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4893,7 +4946,7 @@
       <c r="IS13" s="8"/>
       <c r="IT13" s="8"/>
     </row>
-    <row r="14" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5149,7 +5202,7 @@
       <c r="IS14" s="8"/>
       <c r="IT14" s="8"/>
     </row>
-    <row r="15" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5405,7 +5458,7 @@
       <c r="IS15" s="8"/>
       <c r="IT15" s="8"/>
     </row>
-    <row r="16" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5661,7 +5714,7 @@
       <c r="IS16" s="8"/>
       <c r="IT16" s="8"/>
     </row>
-    <row r="17" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5917,7 +5970,7 @@
       <c r="IS17" s="8"/>
       <c r="IT17" s="8"/>
     </row>
-    <row r="18" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6173,7 +6226,7 @@
       <c r="IS18" s="8"/>
       <c r="IT18" s="8"/>
     </row>
-    <row r="19" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6429,7 +6482,7 @@
       <c r="IS19" s="8"/>
       <c r="IT19" s="8"/>
     </row>
-    <row r="20" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6685,7 +6738,7 @@
       <c r="IS20" s="8"/>
       <c r="IT20" s="8"/>
     </row>
-    <row r="21" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6941,7 +6994,7 @@
       <c r="IS21" s="8"/>
       <c r="IT21" s="8"/>
     </row>
-    <row r="22" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7197,7 +7250,7 @@
       <c r="IS22" s="8"/>
       <c r="IT22" s="8"/>
     </row>
-    <row r="23" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7453,7 +7506,7 @@
       <c r="IS23" s="8"/>
       <c r="IT23" s="8"/>
     </row>
-    <row r="24" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7709,7 +7762,7 @@
       <c r="IS24" s="8"/>
       <c r="IT24" s="8"/>
     </row>
-    <row r="25" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7965,7 +8018,7 @@
       <c r="IS25" s="8"/>
       <c r="IT25" s="8"/>
     </row>
-    <row r="26" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -8221,7 +8274,7 @@
       <c r="IS26" s="8"/>
       <c r="IT26" s="8"/>
     </row>
-    <row r="27" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -8477,7 +8530,7 @@
       <c r="IS27" s="8"/>
       <c r="IT27" s="8"/>
     </row>
-    <row r="28" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -8733,7 +8786,7 @@
       <c r="IS28" s="8"/>
       <c r="IT28" s="8"/>
     </row>
-    <row r="29" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -8989,7 +9042,7 @@
       <c r="IS29" s="8"/>
       <c r="IT29" s="8"/>
     </row>
-    <row r="30" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -9245,7 +9298,7 @@
       <c r="IS30" s="8"/>
       <c r="IT30" s="8"/>
     </row>
-    <row r="31" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -9501,7 +9554,7 @@
       <c r="IS31" s="8"/>
       <c r="IT31" s="8"/>
     </row>
-    <row r="32" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -9562,7 +9615,7 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
     </row>
-    <row r="33" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -9623,7 +9676,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
     </row>
-    <row r="34" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -9684,7 +9737,7 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
     </row>
-    <row r="35" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -9745,7 +9798,7 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
     </row>
-    <row r="36" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -9806,7 +9859,7 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
     </row>
-    <row r="37" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -9867,7 +9920,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
     </row>
-    <row r="38" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -9928,7 +9981,7 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
     </row>
-    <row r="39" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -9989,7 +10042,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
     </row>
-    <row r="40" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -10049,7 +10102,7 @@
       <c r="BE40" s="21"/>
       <c r="BF40" s="7"/>
     </row>
-    <row r="41" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -10108,7 +10161,7 @@
       <c r="BD41" s="20"/>
       <c r="BE41" s="21"/>
     </row>
-    <row r="42" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -10167,7 +10220,7 @@
       <c r="BD42" s="20"/>
       <c r="BE42" s="21"/>
     </row>
-    <row r="43" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -10226,7 +10279,7 @@
       <c r="BD43" s="20"/>
       <c r="BE43" s="21"/>
     </row>
-    <row r="44" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -10285,7 +10338,7 @@
       <c r="BD44" s="20"/>
       <c r="BE44" s="21"/>
     </row>
-    <row r="45" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -10344,82 +10397,82 @@
       <c r="BD45" s="23"/>
       <c r="BE45" s="24"/>
     </row>
-    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
       <c r="M46" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
-      <c r="Q46" s="28" t="s">
+      <c r="Q46" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
       <c r="Z46" s="27" t="s">
         <v>20</v>
       </c>
       <c r="AA46" s="27"/>
       <c r="AB46" s="27"/>
       <c r="AC46" s="27"/>
-      <c r="AD46" s="28" t="s">
+      <c r="AD46" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28"/>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="28"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="26"/>
       <c r="AM46" s="27" t="s">
         <v>1</v>
       </c>
       <c r="AN46" s="27"/>
       <c r="AO46" s="27"/>
-      <c r="AP46" s="28" t="s">
+      <c r="AP46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AQ46" s="28"/>
-      <c r="AR46" s="28"/>
-      <c r="AS46" s="28"/>
-      <c r="AT46" s="28"/>
-      <c r="AU46" s="28"/>
-      <c r="AV46" s="28"/>
+      <c r="AQ46" s="26"/>
+      <c r="AR46" s="26"/>
+      <c r="AS46" s="26"/>
+      <c r="AT46" s="26"/>
+      <c r="AU46" s="26"/>
+      <c r="AV46" s="26"/>
       <c r="AW46" s="27" t="s">
         <v>3</v>
       </c>
       <c r="AX46" s="27"/>
       <c r="AY46" s="27"/>
-      <c r="AZ46" s="30" t="s">
+      <c r="AZ46" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BA46" s="30"/>
-      <c r="BB46" s="30"/>
-      <c r="BC46" s="30"/>
-      <c r="BD46" s="30"/>
-      <c r="BE46" s="30"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
       <c r="BF46" s="8"/>
       <c r="BG46" s="8"/>
       <c r="BH46" s="8"/>
@@ -10618,68 +10671,68 @@
       <c r="IS46" s="8"/>
       <c r="IT46" s="8"/>
     </row>
-    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+    <row r="47" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
       <c r="Z47" s="27"/>
       <c r="AA47" s="27"/>
       <c r="AB47" s="27"/>
       <c r="AC47" s="27"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="28"/>
-      <c r="AL47" s="28"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="26"/>
       <c r="AM47" s="27" t="s">
         <v>4</v>
       </c>
       <c r="AN47" s="27"/>
       <c r="AO47" s="27"/>
-      <c r="AP47" s="28"/>
-      <c r="AQ47" s="28"/>
-      <c r="AR47" s="28"/>
-      <c r="AS47" s="28"/>
-      <c r="AT47" s="28"/>
-      <c r="AU47" s="28"/>
-      <c r="AV47" s="28"/>
+      <c r="AP47" s="26"/>
+      <c r="AQ47" s="26"/>
+      <c r="AR47" s="26"/>
+      <c r="AS47" s="26"/>
+      <c r="AT47" s="26"/>
+      <c r="AU47" s="26"/>
+      <c r="AV47" s="26"/>
       <c r="AW47" s="27" t="s">
         <v>5</v>
       </c>
       <c r="AX47" s="27"/>
       <c r="AY47" s="27"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30"/>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
       <c r="BF47" s="8"/>
       <c r="BG47" s="8"/>
       <c r="BH47" s="8"/>
@@ -10878,7 +10931,7 @@
       <c r="IS47" s="8"/>
       <c r="IT47" s="8"/>
     </row>
-    <row r="48" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -11134,72 +11187,72 @@
       <c r="IS48" s="8"/>
       <c r="IT48" s="8"/>
     </row>
-    <row r="49" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="29" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="37" t="s">
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="29" t="s">
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-      <c r="AF49" s="38"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="38"/>
-      <c r="AK49" s="38"/>
-      <c r="AL49" s="38"/>
-      <c r="AM49" s="38"/>
-      <c r="AN49" s="38"/>
-      <c r="AO49" s="38"/>
-      <c r="AP49" s="38"/>
-      <c r="AQ49" s="38"/>
-      <c r="AR49" s="38"/>
-      <c r="AS49" s="38"/>
-      <c r="AT49" s="38"/>
-      <c r="AU49" s="38"/>
-      <c r="AV49" s="38"/>
-      <c r="AW49" s="38"/>
-      <c r="AX49" s="38"/>
-      <c r="AY49" s="38"/>
-      <c r="AZ49" s="38"/>
-      <c r="BA49" s="38"/>
-      <c r="BB49" s="38"/>
-      <c r="BC49" s="38"/>
-      <c r="BD49" s="38"/>
-      <c r="BE49" s="38"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="31"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="31"/>
+      <c r="AO49" s="31"/>
+      <c r="AP49" s="31"/>
+      <c r="AQ49" s="31"/>
+      <c r="AR49" s="31"/>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="31"/>
+      <c r="AU49" s="31"/>
+      <c r="AV49" s="31"/>
+      <c r="AW49" s="31"/>
+      <c r="AX49" s="31"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="31"/>
+      <c r="BA49" s="31"/>
+      <c r="BB49" s="31"/>
+      <c r="BC49" s="31"/>
+      <c r="BD49" s="31"/>
+      <c r="BE49" s="31"/>
       <c r="BF49" s="8"/>
       <c r="BG49" s="8"/>
       <c r="BH49" s="8"/>
@@ -11398,64 +11451,64 @@
       <c r="IS49" s="8"/>
       <c r="IT49" s="8"/>
     </row>
-    <row r="50" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="38"/>
-      <c r="AK50" s="38"/>
-      <c r="AL50" s="38"/>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="38"/>
-      <c r="AP50" s="38"/>
-      <c r="AQ50" s="38"/>
-      <c r="AR50" s="38"/>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
-      <c r="AW50" s="38"/>
-      <c r="AX50" s="38"/>
-      <c r="AY50" s="38"/>
-      <c r="AZ50" s="38"/>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38"/>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="38"/>
+    <row r="50" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="31"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="31"/>
+      <c r="AQ50" s="31"/>
+      <c r="AR50" s="31"/>
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="31"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="31"/>
+      <c r="AW50" s="31"/>
+      <c r="AX50" s="31"/>
+      <c r="AY50" s="31"/>
+      <c r="AZ50" s="31"/>
+      <c r="BA50" s="31"/>
+      <c r="BB50" s="31"/>
+      <c r="BC50" s="31"/>
+      <c r="BD50" s="31"/>
+      <c r="BE50" s="31"/>
       <c r="BF50" s="8"/>
       <c r="BG50" s="8"/>
       <c r="BH50" s="8"/>
@@ -11654,7 +11707,7 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
     </row>
-    <row r="51" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -11910,7 +11963,7 @@
       <c r="IS51" s="8"/>
       <c r="IT51" s="8"/>
     </row>
-    <row r="52" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -12166,7 +12219,7 @@
       <c r="IS52" s="8"/>
       <c r="IT52" s="8"/>
     </row>
-    <row r="53" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -12422,7 +12475,7 @@
       <c r="IS53" s="8"/>
       <c r="IT53" s="8"/>
     </row>
-    <row r="54" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -12678,7 +12731,7 @@
       <c r="IS54" s="8"/>
       <c r="IT54" s="8"/>
     </row>
-    <row r="55" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -12934,7 +12987,7 @@
       <c r="IS55" s="8"/>
       <c r="IT55" s="8"/>
     </row>
-    <row r="56" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -13190,7 +13243,7 @@
       <c r="IS56" s="8"/>
       <c r="IT56" s="8"/>
     </row>
-    <row r="57" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -13446,7 +13499,7 @@
       <c r="IS57" s="8"/>
       <c r="IT57" s="8"/>
     </row>
-    <row r="58" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -13702,7 +13755,7 @@
       <c r="IS58" s="8"/>
       <c r="IT58" s="8"/>
     </row>
-    <row r="59" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -13958,7 +14011,7 @@
       <c r="IS59" s="8"/>
       <c r="IT59" s="8"/>
     </row>
-    <row r="60" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -14214,7 +14267,7 @@
       <c r="IS60" s="8"/>
       <c r="IT60" s="8"/>
     </row>
-    <row r="61" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -14470,7 +14523,7 @@
       <c r="IS61" s="8"/>
       <c r="IT61" s="8"/>
     </row>
-    <row r="62" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -14726,7 +14779,7 @@
       <c r="IS62" s="8"/>
       <c r="IT62" s="8"/>
     </row>
-    <row r="63" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -14982,7 +15035,7 @@
       <c r="IS63" s="8"/>
       <c r="IT63" s="8"/>
     </row>
-    <row r="64" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -15238,7 +15291,7 @@
       <c r="IS64" s="8"/>
       <c r="IT64" s="8"/>
     </row>
-    <row r="65" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -15494,7 +15547,7 @@
       <c r="IS65" s="8"/>
       <c r="IT65" s="8"/>
     </row>
-    <row r="66" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -15750,7 +15803,7 @@
       <c r="IS66" s="8"/>
       <c r="IT66" s="8"/>
     </row>
-    <row r="67" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -16006,7 +16059,7 @@
       <c r="IS67" s="8"/>
       <c r="IT67" s="8"/>
     </row>
-    <row r="68" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -16262,7 +16315,7 @@
       <c r="IS68" s="8"/>
       <c r="IT68" s="8"/>
     </row>
-    <row r="69" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -16518,7 +16571,7 @@
       <c r="IS69" s="8"/>
       <c r="IT69" s="8"/>
     </row>
-    <row r="70" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -16774,7 +16827,7 @@
       <c r="IS70" s="8"/>
       <c r="IT70" s="8"/>
     </row>
-    <row r="71" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -17030,7 +17083,7 @@
       <c r="IS71" s="8"/>
       <c r="IT71" s="8"/>
     </row>
-    <row r="72" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -17286,7 +17339,7 @@
       <c r="IS72" s="8"/>
       <c r="IT72" s="8"/>
     </row>
-    <row r="73" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -17542,7 +17595,7 @@
       <c r="IS73" s="8"/>
       <c r="IT73" s="8"/>
     </row>
-    <row r="74" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -17798,7 +17851,7 @@
       <c r="IS74" s="8"/>
       <c r="IT74" s="8"/>
     </row>
-    <row r="75" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -18054,7 +18107,7 @@
       <c r="IS75" s="8"/>
       <c r="IT75" s="8"/>
     </row>
-    <row r="76" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -18310,7 +18363,7 @@
       <c r="IS76" s="8"/>
       <c r="IT76" s="8"/>
     </row>
-    <row r="77" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -18566,7 +18619,7 @@
       <c r="IS77" s="8"/>
       <c r="IT77" s="8"/>
     </row>
-    <row r="78" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -18822,7 +18875,7 @@
       <c r="IS78" s="8"/>
       <c r="IT78" s="8"/>
     </row>
-    <row r="79" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -19078,7 +19131,7 @@
       <c r="IS79" s="8"/>
       <c r="IT79" s="8"/>
     </row>
-    <row r="80" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -19139,7 +19192,7 @@
       <c r="BF80" s="7"/>
       <c r="BG80" s="7"/>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -19200,7 +19253,7 @@
       <c r="BF81" s="7"/>
       <c r="BG81" s="7"/>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -19261,7 +19314,7 @@
       <c r="BF82" s="7"/>
       <c r="BG82" s="7"/>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -19322,7 +19375,7 @@
       <c r="BF83" s="7"/>
       <c r="BG83" s="7"/>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -19383,7 +19436,7 @@
       <c r="BF84" s="7"/>
       <c r="BG84" s="7"/>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -19444,7 +19497,7 @@
       <c r="BF85" s="7"/>
       <c r="BG85" s="7"/>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -19505,7 +19558,7 @@
       <c r="BF86" s="7"/>
       <c r="BG86" s="7"/>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -19566,7 +19619,7 @@
       <c r="BF87" s="7"/>
       <c r="BG87" s="7"/>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -19627,7 +19680,7 @@
       <c r="BF88" s="7"/>
       <c r="BG88" s="7"/>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -19688,7 +19741,7 @@
       <c r="BF89" s="7"/>
       <c r="BG89" s="7"/>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -19748,7 +19801,7 @@
       <c r="BE90" s="21"/>
       <c r="BF90" s="7"/>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -19807,7 +19860,7 @@
       <c r="BD91" s="20"/>
       <c r="BE91" s="21"/>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -19866,7 +19919,7 @@
       <c r="BD92" s="20"/>
       <c r="BE92" s="21"/>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -19925,7 +19978,7 @@
       <c r="BD93" s="20"/>
       <c r="BE93" s="21"/>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -19984,7 +20037,7 @@
       <c r="BD94" s="20"/>
       <c r="BE94" s="21"/>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -20043,7 +20096,7 @@
       <c r="BD95" s="20"/>
       <c r="BE95" s="21"/>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -20102,147 +20155,147 @@
       <c r="BD96" s="23"/>
       <c r="BE96" s="24"/>
     </row>
-    <row r="97" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+    <row r="97" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="34"/>
       <c r="M97" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N97" s="27"/>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
-      <c r="Q97" s="28" t="s">
+      <c r="Q97" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
-      <c r="U97" s="28"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
+      <c r="W97" s="26"/>
+      <c r="X97" s="26"/>
+      <c r="Y97" s="26"/>
       <c r="Z97" s="27" t="s">
         <v>20</v>
       </c>
       <c r="AA97" s="27"/>
       <c r="AB97" s="27"/>
       <c r="AC97" s="27"/>
-      <c r="AD97" s="28" t="s">
+      <c r="AD97" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AE97" s="28"/>
-      <c r="AF97" s="28"/>
-      <c r="AG97" s="28"/>
-      <c r="AH97" s="28"/>
-      <c r="AI97" s="28"/>
-      <c r="AJ97" s="28"/>
-      <c r="AK97" s="28"/>
-      <c r="AL97" s="28"/>
+      <c r="AE97" s="26"/>
+      <c r="AF97" s="26"/>
+      <c r="AG97" s="26"/>
+      <c r="AH97" s="26"/>
+      <c r="AI97" s="26"/>
+      <c r="AJ97" s="26"/>
+      <c r="AK97" s="26"/>
+      <c r="AL97" s="26"/>
       <c r="AM97" s="27" t="s">
         <v>1</v>
       </c>
       <c r="AN97" s="27"/>
       <c r="AO97" s="27"/>
-      <c r="AP97" s="28" t="s">
+      <c r="AP97" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AQ97" s="28"/>
-      <c r="AR97" s="28"/>
-      <c r="AS97" s="28"/>
-      <c r="AT97" s="28"/>
-      <c r="AU97" s="28"/>
-      <c r="AV97" s="28"/>
+      <c r="AQ97" s="26"/>
+      <c r="AR97" s="26"/>
+      <c r="AS97" s="26"/>
+      <c r="AT97" s="26"/>
+      <c r="AU97" s="26"/>
+      <c r="AV97" s="26"/>
       <c r="AW97" s="27" t="s">
         <v>3</v>
       </c>
       <c r="AX97" s="27"/>
       <c r="AY97" s="27"/>
-      <c r="AZ97" s="30" t="s">
+      <c r="AZ97" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BA97" s="30"/>
-      <c r="BB97" s="30"/>
-      <c r="BC97" s="30"/>
-      <c r="BD97" s="30"/>
-      <c r="BE97" s="30"/>
+      <c r="BA97" s="38"/>
+      <c r="BB97" s="38"/>
+      <c r="BC97" s="38"/>
+      <c r="BD97" s="38"/>
+      <c r="BE97" s="38"/>
     </row>
-    <row r="98" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="36"/>
+    <row r="98" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="35"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
       <c r="M98" s="27"/>
       <c r="N98" s="27"/>
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-      <c r="T98" s="28"/>
-      <c r="U98" s="28"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26"/>
+      <c r="V98" s="26"/>
+      <c r="W98" s="26"/>
+      <c r="X98" s="26"/>
+      <c r="Y98" s="26"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
       <c r="AB98" s="27"/>
       <c r="AC98" s="27"/>
-      <c r="AD98" s="28"/>
-      <c r="AE98" s="28"/>
-      <c r="AF98" s="28"/>
-      <c r="AG98" s="28"/>
-      <c r="AH98" s="28"/>
-      <c r="AI98" s="28"/>
-      <c r="AJ98" s="28"/>
-      <c r="AK98" s="28"/>
-      <c r="AL98" s="28"/>
+      <c r="AD98" s="26"/>
+      <c r="AE98" s="26"/>
+      <c r="AF98" s="26"/>
+      <c r="AG98" s="26"/>
+      <c r="AH98" s="26"/>
+      <c r="AI98" s="26"/>
+      <c r="AJ98" s="26"/>
+      <c r="AK98" s="26"/>
+      <c r="AL98" s="26"/>
       <c r="AM98" s="27" t="s">
         <v>4</v>
       </c>
       <c r="AN98" s="27"/>
       <c r="AO98" s="27"/>
-      <c r="AP98" s="28"/>
-      <c r="AQ98" s="28"/>
-      <c r="AR98" s="28"/>
-      <c r="AS98" s="28"/>
-      <c r="AT98" s="28"/>
-      <c r="AU98" s="28"/>
-      <c r="AV98" s="28"/>
+      <c r="AP98" s="26"/>
+      <c r="AQ98" s="26"/>
+      <c r="AR98" s="26"/>
+      <c r="AS98" s="26"/>
+      <c r="AT98" s="26"/>
+      <c r="AU98" s="26"/>
+      <c r="AV98" s="26"/>
       <c r="AW98" s="27" t="s">
         <v>5</v>
       </c>
       <c r="AX98" s="27"/>
       <c r="AY98" s="27"/>
-      <c r="AZ98" s="30"/>
-      <c r="BA98" s="30"/>
-      <c r="BB98" s="30"/>
-      <c r="BC98" s="30"/>
-      <c r="BD98" s="30"/>
-      <c r="BE98" s="30"/>
+      <c r="AZ98" s="38"/>
+      <c r="BA98" s="38"/>
+      <c r="BB98" s="38"/>
+      <c r="BC98" s="38"/>
+      <c r="BD98" s="38"/>
+      <c r="BE98" s="38"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -20301,133 +20354,133 @@
       <c r="BD99" s="5"/>
       <c r="BE99" s="5"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="29" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="26" t="s">
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="26"/>
-      <c r="AA100" s="26"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="29" t="s">
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AD100" s="29"/>
-      <c r="AE100" s="29"/>
-      <c r="AF100" s="29"/>
-      <c r="AG100" s="29"/>
-      <c r="AH100" s="29"/>
-      <c r="AI100" s="29"/>
-      <c r="AJ100" s="29"/>
-      <c r="AK100" s="29"/>
-      <c r="AL100" s="29"/>
-      <c r="AM100" s="29"/>
-      <c r="AN100" s="29"/>
-      <c r="AO100" s="29"/>
-      <c r="AP100" s="29"/>
-      <c r="AQ100" s="29"/>
-      <c r="AR100" s="29"/>
-      <c r="AS100" s="29"/>
-      <c r="AT100" s="29"/>
-      <c r="AU100" s="29"/>
-      <c r="AV100" s="29"/>
-      <c r="AW100" s="29"/>
-      <c r="AX100" s="29"/>
-      <c r="AY100" s="29"/>
-      <c r="AZ100" s="29"/>
-      <c r="BA100" s="29"/>
-      <c r="BB100" s="29"/>
-      <c r="BC100" s="29"/>
-      <c r="BD100" s="29"/>
-      <c r="BE100" s="29"/>
+      <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
+      <c r="AF100" s="30"/>
+      <c r="AG100" s="30"/>
+      <c r="AH100" s="30"/>
+      <c r="AI100" s="30"/>
+      <c r="AJ100" s="30"/>
+      <c r="AK100" s="30"/>
+      <c r="AL100" s="30"/>
+      <c r="AM100" s="30"/>
+      <c r="AN100" s="30"/>
+      <c r="AO100" s="30"/>
+      <c r="AP100" s="30"/>
+      <c r="AQ100" s="30"/>
+      <c r="AR100" s="30"/>
+      <c r="AS100" s="30"/>
+      <c r="AT100" s="30"/>
+      <c r="AU100" s="30"/>
+      <c r="AV100" s="30"/>
+      <c r="AW100" s="30"/>
+      <c r="AX100" s="30"/>
+      <c r="AY100" s="30"/>
+      <c r="AZ100" s="30"/>
+      <c r="BA100" s="30"/>
+      <c r="BB100" s="30"/>
+      <c r="BC100" s="30"/>
+      <c r="BD100" s="30"/>
+      <c r="BE100" s="30"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="26"/>
-      <c r="Z101" s="26"/>
-      <c r="AA101" s="26"/>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
-      <c r="AE101" s="29"/>
-      <c r="AF101" s="29"/>
-      <c r="AG101" s="29"/>
-      <c r="AH101" s="29"/>
-      <c r="AI101" s="29"/>
-      <c r="AJ101" s="29"/>
-      <c r="AK101" s="29"/>
-      <c r="AL101" s="29"/>
-      <c r="AM101" s="29"/>
-      <c r="AN101" s="29"/>
-      <c r="AO101" s="29"/>
-      <c r="AP101" s="29"/>
-      <c r="AQ101" s="29"/>
-      <c r="AR101" s="29"/>
-      <c r="AS101" s="29"/>
-      <c r="AT101" s="29"/>
-      <c r="AU101" s="29"/>
-      <c r="AV101" s="29"/>
-      <c r="AW101" s="29"/>
-      <c r="AX101" s="29"/>
-      <c r="AY101" s="29"/>
-      <c r="AZ101" s="29"/>
-      <c r="BA101" s="29"/>
-      <c r="BB101" s="29"/>
-      <c r="BC101" s="29"/>
-      <c r="BD101" s="29"/>
-      <c r="BE101" s="29"/>
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+      <c r="Z101" s="28"/>
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="28"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
+      <c r="AF101" s="30"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="30"/>
+      <c r="AI101" s="30"/>
+      <c r="AJ101" s="30"/>
+      <c r="AK101" s="30"/>
+      <c r="AL101" s="30"/>
+      <c r="AM101" s="30"/>
+      <c r="AN101" s="30"/>
+      <c r="AO101" s="30"/>
+      <c r="AP101" s="30"/>
+      <c r="AQ101" s="30"/>
+      <c r="AR101" s="30"/>
+      <c r="AS101" s="30"/>
+      <c r="AT101" s="30"/>
+      <c r="AU101" s="30"/>
+      <c r="AV101" s="30"/>
+      <c r="AW101" s="30"/>
+      <c r="AX101" s="30"/>
+      <c r="AY101" s="30"/>
+      <c r="AZ101" s="30"/>
+      <c r="BA101" s="30"/>
+      <c r="BB101" s="30"/>
+      <c r="BC101" s="30"/>
+      <c r="BD101" s="30"/>
+      <c r="BE101" s="30"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -20486,7 +20539,7 @@
       <c r="BD102" s="9"/>
       <c r="BE102" s="9"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -20545,7 +20598,7 @@
       <c r="BD103" s="11"/>
       <c r="BE103" s="12"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -20604,7 +20657,7 @@
       <c r="BD104" s="14"/>
       <c r="BE104" s="16"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -20663,7 +20716,7 @@
       <c r="BD105" s="14"/>
       <c r="BE105" s="16"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -20722,7 +20775,7 @@
       <c r="BD106" s="14"/>
       <c r="BE106" s="16"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -20781,7 +20834,7 @@
       <c r="BD107" s="14"/>
       <c r="BE107" s="16"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -20840,7 +20893,7 @@
       <c r="BD108" s="14"/>
       <c r="BE108" s="16"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -20899,7 +20952,7 @@
       <c r="BD109" s="14"/>
       <c r="BE109" s="16"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -20958,7 +21011,7 @@
       <c r="BD110" s="14"/>
       <c r="BE110" s="16"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -21017,7 +21070,7 @@
       <c r="BD111" s="14"/>
       <c r="BE111" s="16"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -21076,7 +21129,7 @@
       <c r="BD112" s="14"/>
       <c r="BE112" s="16"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -21135,7 +21188,7 @@
       <c r="BD113" s="14"/>
       <c r="BE113" s="16"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -21194,7 +21247,7 @@
       <c r="BD114" s="14"/>
       <c r="BE114" s="16"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -21253,7 +21306,7 @@
       <c r="BD115" s="14"/>
       <c r="BE115" s="16"/>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -21312,7 +21365,7 @@
       <c r="BD116" s="14"/>
       <c r="BE116" s="16"/>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -21371,7 +21424,7 @@
       <c r="BD117" s="14"/>
       <c r="BE117" s="16"/>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -21430,7 +21483,7 @@
       <c r="BD118" s="14"/>
       <c r="BE118" s="16"/>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -21489,7 +21542,7 @@
       <c r="BD119" s="14"/>
       <c r="BE119" s="16"/>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -21548,7 +21601,7 @@
       <c r="BD120" s="14"/>
       <c r="BE120" s="16"/>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -21607,7 +21660,7 @@
       <c r="BD121" s="20"/>
       <c r="BE121" s="21"/>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -21666,7 +21719,7 @@
       <c r="BD122" s="20"/>
       <c r="BE122" s="21"/>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -21725,7 +21778,7 @@
       <c r="BD123" s="20"/>
       <c r="BE123" s="21"/>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -21784,7 +21837,7 @@
       <c r="BD124" s="20"/>
       <c r="BE124" s="21"/>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -21843,7 +21896,7 @@
       <c r="BD125" s="20"/>
       <c r="BE125" s="21"/>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -21902,7 +21955,7 @@
       <c r="BD126" s="20"/>
       <c r="BE126" s="21"/>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -21961,7 +22014,7 @@
       <c r="BD127" s="20"/>
       <c r="BE127" s="21"/>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -22020,7 +22073,7 @@
       <c r="BD128" s="20"/>
       <c r="BE128" s="21"/>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -22079,7 +22132,7 @@
       <c r="BD129" s="20"/>
       <c r="BE129" s="21"/>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -22138,7 +22191,7 @@
       <c r="BD130" s="23"/>
       <c r="BE130" s="24"/>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -22197,7 +22250,7 @@
       <c r="BD131" s="20"/>
       <c r="BE131" s="20"/>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -22256,7 +22309,7 @@
       <c r="BD132" s="25"/>
       <c r="BE132" s="25"/>
     </row>
-    <row r="133" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
@@ -22315,7 +22368,7 @@
       <c r="BD133" s="25"/>
       <c r="BE133" s="25"/>
     </row>
-    <row r="134" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -22374,7 +22427,7 @@
       <c r="BD134" s="25"/>
       <c r="BE134" s="25"/>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -22433,7 +22486,7 @@
       <c r="BD135" s="25"/>
       <c r="BE135" s="25"/>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
@@ -22492,7 +22545,7 @@
       <c r="BD136" s="25"/>
       <c r="BE136" s="25"/>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
@@ -22551,7 +22604,7 @@
       <c r="BD137" s="25"/>
       <c r="BE137" s="25"/>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
@@ -22610,7 +22663,7 @@
       <c r="BD138" s="25"/>
       <c r="BE138" s="25"/>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -22669,7 +22722,7 @@
       <c r="BD139" s="25"/>
       <c r="BE139" s="25"/>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -22728,7 +22781,7 @@
       <c r="BD140" s="25"/>
       <c r="BE140" s="25"/>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
@@ -22787,7 +22840,7 @@
       <c r="BD141" s="25"/>
       <c r="BE141" s="25"/>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
@@ -22846,7 +22899,7 @@
       <c r="BD142" s="25"/>
       <c r="BE142" s="25"/>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
@@ -22905,7 +22958,7 @@
       <c r="BD143" s="25"/>
       <c r="BE143" s="25"/>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
@@ -22964,7 +23017,7 @@
       <c r="BD144" s="25"/>
       <c r="BE144" s="25"/>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
@@ -23023,7 +23076,7 @@
       <c r="BD145" s="25"/>
       <c r="BE145" s="25"/>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
@@ -23082,7 +23135,7 @@
       <c r="BD146" s="25"/>
       <c r="BE146" s="25"/>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
@@ -23141,7 +23194,7 @@
       <c r="BD147" s="25"/>
       <c r="BE147" s="25"/>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
@@ -23200,7 +23253,7 @@
       <c r="BD148" s="25"/>
       <c r="BE148" s="25"/>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
@@ -23259,7 +23312,7 @@
       <c r="BD149" s="25"/>
       <c r="BE149" s="25"/>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
@@ -23318,7 +23371,7 @@
       <c r="BD150" s="25"/>
       <c r="BE150" s="25"/>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
@@ -23377,7 +23430,7 @@
       <c r="BD151" s="25"/>
       <c r="BE151" s="25"/>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
@@ -23436,7 +23489,7 @@
       <c r="BD152" s="25"/>
       <c r="BE152" s="25"/>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -23495,7 +23548,7 @@
       <c r="BD153" s="25"/>
       <c r="BE153" s="25"/>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
@@ -23554,7 +23607,7 @@
       <c r="BD154" s="25"/>
       <c r="BE154" s="25"/>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
@@ -23613,7 +23666,7 @@
       <c r="BD155" s="25"/>
       <c r="BE155" s="25"/>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
@@ -23672,7 +23725,7 @@
       <c r="BD156" s="25"/>
       <c r="BE156" s="25"/>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
@@ -23731,7 +23784,7 @@
       <c r="BD157" s="25"/>
       <c r="BE157" s="25"/>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -23790,7 +23843,7 @@
       <c r="BD158" s="25"/>
       <c r="BE158" s="25"/>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
@@ -23849,7 +23902,7 @@
       <c r="BD159" s="25"/>
       <c r="BE159" s="25"/>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -23908,7 +23961,7 @@
       <c r="BD160" s="25"/>
       <c r="BE160" s="25"/>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
@@ -23967,7 +24020,7 @@
       <c r="BD161" s="25"/>
       <c r="BE161" s="25"/>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
@@ -24026,7 +24079,7 @@
       <c r="BD162" s="25"/>
       <c r="BE162" s="25"/>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
@@ -24085,7 +24138,7 @@
       <c r="BD163" s="25"/>
       <c r="BE163" s="25"/>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
@@ -24144,7 +24197,7 @@
       <c r="BD164" s="25"/>
       <c r="BE164" s="25"/>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
@@ -24203,7 +24256,7 @@
       <c r="BD165" s="25"/>
       <c r="BE165" s="25"/>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
@@ -24262,7 +24315,7 @@
       <c r="BD166" s="25"/>
       <c r="BE166" s="25"/>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -24321,7 +24374,7 @@
       <c r="BD167" s="25"/>
       <c r="BE167" s="25"/>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
@@ -24380,7 +24433,7 @@
       <c r="BD168" s="25"/>
       <c r="BE168" s="25"/>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
@@ -24439,7 +24492,7 @@
       <c r="BD169" s="25"/>
       <c r="BE169" s="25"/>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
@@ -24498,7 +24551,7 @@
       <c r="BD170" s="25"/>
       <c r="BE170" s="25"/>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
@@ -24557,7 +24610,7 @@
       <c r="BD171" s="25"/>
       <c r="BE171" s="25"/>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
@@ -24616,7 +24669,7 @@
       <c r="BD172" s="25"/>
       <c r="BE172" s="25"/>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
@@ -24675,7 +24728,7 @@
       <c r="BD173" s="25"/>
       <c r="BE173" s="25"/>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -24734,7 +24787,7 @@
       <c r="BD174" s="25"/>
       <c r="BE174" s="25"/>
     </row>
-    <row r="175" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
@@ -24793,7 +24846,7 @@
       <c r="BD175" s="25"/>
       <c r="BE175" s="25"/>
     </row>
-    <row r="176" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
@@ -24852,7 +24905,7 @@
       <c r="BD176" s="25"/>
       <c r="BE176" s="25"/>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
@@ -24911,7 +24964,7 @@
       <c r="BD177" s="25"/>
       <c r="BE177" s="25"/>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
@@ -24970,7 +25023,7 @@
       <c r="BD178" s="25"/>
       <c r="BE178" s="25"/>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
@@ -25029,7 +25082,7 @@
       <c r="BD179" s="25"/>
       <c r="BE179" s="25"/>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
@@ -25088,7 +25141,7 @@
       <c r="BD180" s="25"/>
       <c r="BE180" s="25"/>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
@@ -25147,7 +25200,7 @@
       <c r="BD181" s="25"/>
       <c r="BE181" s="25"/>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
@@ -25206,7 +25259,7 @@
       <c r="BD182" s="25"/>
       <c r="BE182" s="25"/>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
@@ -25265,7 +25318,7 @@
       <c r="BD183" s="25"/>
       <c r="BE183" s="25"/>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
@@ -25324,7 +25377,7 @@
       <c r="BD184" s="25"/>
       <c r="BE184" s="25"/>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
@@ -25383,7 +25436,7 @@
       <c r="BD185" s="25"/>
       <c r="BE185" s="25"/>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
@@ -25442,7 +25495,7 @@
       <c r="BD186" s="25"/>
       <c r="BE186" s="25"/>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -25501,7 +25554,7 @@
       <c r="BD187" s="25"/>
       <c r="BE187" s="25"/>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -25560,7 +25613,7 @@
       <c r="BD188" s="25"/>
       <c r="BE188" s="25"/>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
@@ -25619,7 +25672,7 @@
       <c r="BD189" s="25"/>
       <c r="BE189" s="25"/>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
@@ -25678,7 +25731,7 @@
       <c r="BD190" s="25"/>
       <c r="BE190" s="25"/>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
@@ -25737,7 +25790,7 @@
       <c r="BD191" s="25"/>
       <c r="BE191" s="25"/>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
@@ -25796,7 +25849,7 @@
       <c r="BD192" s="25"/>
       <c r="BE192" s="25"/>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
@@ -25855,7 +25908,7 @@
       <c r="BD193" s="25"/>
       <c r="BE193" s="25"/>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
@@ -25914,7 +25967,7 @@
       <c r="BD194" s="25"/>
       <c r="BE194" s="25"/>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
@@ -25973,7 +26026,7 @@
       <c r="BD195" s="25"/>
       <c r="BE195" s="25"/>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
@@ -26032,7 +26085,7 @@
       <c r="BD196" s="25"/>
       <c r="BE196" s="25"/>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
@@ -26091,7 +26144,7 @@
       <c r="BD197" s="25"/>
       <c r="BE197" s="25"/>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
@@ -26150,7 +26203,7 @@
       <c r="BD198" s="25"/>
       <c r="BE198" s="25"/>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
@@ -26209,7 +26262,7 @@
       <c r="BD199" s="25"/>
       <c r="BE199" s="25"/>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
@@ -26268,7 +26321,7 @@
       <c r="BD200" s="25"/>
       <c r="BE200" s="25"/>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="25"/>
       <c r="B201" s="25"/>
       <c r="C201" s="25"/>
@@ -26327,7 +26380,7 @@
       <c r="BD201" s="25"/>
       <c r="BE201" s="25"/>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="25"/>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
@@ -26386,7 +26439,7 @@
       <c r="BD202" s="25"/>
       <c r="BE202" s="25"/>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
@@ -26445,7 +26498,7 @@
       <c r="BD203" s="25"/>
       <c r="BE203" s="25"/>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
@@ -26504,7 +26557,7 @@
       <c r="BD204" s="25"/>
       <c r="BE204" s="25"/>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="25"/>
       <c r="C205" s="25"/>
@@ -26563,7 +26616,7 @@
       <c r="BD205" s="25"/>
       <c r="BE205" s="25"/>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="25"/>
       <c r="C206" s="25"/>
@@ -26622,7 +26675,7 @@
       <c r="BD206" s="25"/>
       <c r="BE206" s="25"/>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="25"/>
       <c r="B207" s="25"/>
       <c r="C207" s="25"/>
@@ -26681,7 +26734,7 @@
       <c r="BD207" s="25"/>
       <c r="BE207" s="25"/>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="25"/>
       <c r="B208" s="25"/>
       <c r="C208" s="25"/>
@@ -26740,7 +26793,7 @@
       <c r="BD208" s="25"/>
       <c r="BE208" s="25"/>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="25"/>
       <c r="C209" s="25"/>
@@ -26799,7 +26852,7 @@
       <c r="BD209" s="25"/>
       <c r="BE209" s="25"/>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25"/>
@@ -26858,7 +26911,7 @@
       <c r="BD210" s="25"/>
       <c r="BE210" s="25"/>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
       <c r="C211" s="25"/>
@@ -26917,7 +26970,7 @@
       <c r="BD211" s="25"/>
       <c r="BE211" s="25"/>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
       <c r="C212" s="25"/>
@@ -26976,7 +27029,7 @@
       <c r="BD212" s="25"/>
       <c r="BE212" s="25"/>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="25"/>
       <c r="C213" s="25"/>
@@ -27035,7 +27088,7 @@
       <c r="BD213" s="25"/>
       <c r="BE213" s="25"/>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="B214" s="25"/>
       <c r="C214" s="25"/>
@@ -27094,7 +27147,7 @@
       <c r="BD214" s="25"/>
       <c r="BE214" s="25"/>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="B215" s="25"/>
       <c r="C215" s="25"/>
@@ -27155,11 +27208,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="Q47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AL47"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q46:Y46"/>
+    <mergeCell ref="A100:E101"/>
+    <mergeCell ref="AM97:AO97"/>
+    <mergeCell ref="AP97:AV97"/>
+    <mergeCell ref="AW97:AY97"/>
+    <mergeCell ref="F100:W101"/>
+    <mergeCell ref="X100:AB101"/>
+    <mergeCell ref="AC100:BE101"/>
+    <mergeCell ref="AZ97:BE97"/>
+    <mergeCell ref="AM98:AO98"/>
+    <mergeCell ref="AP98:AV98"/>
+    <mergeCell ref="AW98:AY98"/>
+    <mergeCell ref="AZ98:BE98"/>
+    <mergeCell ref="A97:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="Q98:Y98"/>
+    <mergeCell ref="Z98:AC98"/>
+    <mergeCell ref="AD98:AL98"/>
+    <mergeCell ref="M97:P97"/>
+    <mergeCell ref="Q97:Y97"/>
+    <mergeCell ref="Z97:AC97"/>
+    <mergeCell ref="AD97:AL97"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BE1"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="AC4:BE5"/>
     <mergeCell ref="A49:E50"/>
     <mergeCell ref="F49:W50"/>
     <mergeCell ref="X49:AB50"/>
@@ -27176,48 +27266,11 @@
     <mergeCell ref="AW47:AY47"/>
     <mergeCell ref="AZ47:BE47"/>
     <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:BE5"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BE1"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="AD98:AL98"/>
-    <mergeCell ref="M97:P97"/>
-    <mergeCell ref="Q97:Y97"/>
-    <mergeCell ref="Z97:AC97"/>
-    <mergeCell ref="AD97:AL97"/>
-    <mergeCell ref="A100:E101"/>
-    <mergeCell ref="AM97:AO97"/>
-    <mergeCell ref="AP97:AV97"/>
-    <mergeCell ref="AW97:AY97"/>
-    <mergeCell ref="F100:W101"/>
-    <mergeCell ref="X100:AB101"/>
-    <mergeCell ref="AC100:BE101"/>
-    <mergeCell ref="AZ97:BE97"/>
-    <mergeCell ref="AM98:AO98"/>
-    <mergeCell ref="AP98:AV98"/>
-    <mergeCell ref="AW98:AY98"/>
-    <mergeCell ref="AZ98:BE98"/>
-    <mergeCell ref="A97:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="Q98:Y98"/>
-    <mergeCell ref="Z98:AC98"/>
+    <mergeCell ref="Q47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AL47"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="Q46:Y46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -27233,97 +27286,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:HY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AB38" sqref="AB38:AJ38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="55" width="2.5" style="1" customWidth="1"/>
-    <col min="56" max="955" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="55" width="2.453125" style="1" customWidth="1"/>
+    <col min="56" max="955" width="2.6328125" style="1" customWidth="1"/>
     <col min="956" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="X1" s="27" t="s">
         <v>20</v>
       </c>
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
       <c r="AK1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="AL1" s="27"/>
       <c r="AM1" s="27"/>
-      <c r="AN1" s="28" t="s">
+      <c r="AN1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
       <c r="AU1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="AV1" s="27"/>
       <c r="AW1" s="27"/>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -27503,66 +27556,66 @@
       <c r="HX1" s="3"/>
       <c r="HY1" s="3"/>
     </row>
-    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
       <c r="X2" s="27"/>
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
       <c r="AA2" s="27"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
       <c r="AK2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="AL2" s="27"/>
       <c r="AM2" s="27"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
       <c r="AU2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="AV2" s="27"/>
       <c r="AW2" s="27"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -27742,7 +27795,7 @@
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
     </row>
-    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -27977,7 +28030,7 @@
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
     </row>
-    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
@@ -27988,23 +28041,23 @@
       <c r="F4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
       <c r="X4" s="49" t="s">
         <v>6</v>
       </c>
@@ -28220,30 +28273,30 @@
       <c r="HX4" s="3"/>
       <c r="HY4" s="3"/>
     </row>
-    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
       <c r="X5" s="50"/>
       <c r="Y5" s="50"/>
       <c r="Z5" s="50"/>
@@ -28455,7 +28508,7 @@
       <c r="HX5" s="3"/>
       <c r="HY5" s="3"/>
     </row>
-    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -28675,72 +28728,72 @@
       <c r="HQ6" s="3"/>
       <c r="HR6" s="3"/>
     </row>
-    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37" t="s">
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37" t="s">
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -28869,62 +28922,62 @@
       <c r="HI7" s="3"/>
       <c r="HJ7" s="3"/>
     </row>
-    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
+    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -29053,72 +29106,72 @@
       <c r="HI8" s="3"/>
       <c r="HJ8" s="3"/>
     </row>
-    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="40" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="53" t="s">
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="62" t="s">
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -29247,70 +29300,70 @@
       <c r="HI9" s="3"/>
       <c r="HJ9" s="3"/>
     </row>
-    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="40" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="53" t="s">
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="62"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -29439,70 +29492,70 @@
       <c r="HI10" s="3"/>
       <c r="HJ10" s="3"/>
     </row>
-    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="40" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="53" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -29631,70 +29684,70 @@
       <c r="HI11" s="3"/>
       <c r="HJ11" s="3"/>
     </row>
-    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="40" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="53" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BB12" s="62"/>
-      <c r="BC12" s="62"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -29823,70 +29876,70 @@
       <c r="HI12" s="3"/>
       <c r="HJ12" s="3"/>
     </row>
-    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="40" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="53" t="s">
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="62"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="57"/>
+      <c r="BB13" s="57"/>
+      <c r="BC13" s="57"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -30015,70 +30068,70 @@
       <c r="HI13" s="3"/>
       <c r="HJ13" s="3"/>
     </row>
-    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="40" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="53" t="s">
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="57"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -30207,70 +30260,70 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="40" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="53" t="s">
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -30399,70 +30452,70 @@
       <c r="HI15" s="3"/>
       <c r="HJ15" s="3"/>
     </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="40" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43" t="s">
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="53" t="s">
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="CP16" s="3"/>
@@ -30591,70 +30644,70 @@
       <c r="HI16" s="3"/>
       <c r="HJ16" s="3"/>
     </row>
-    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="40" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43" t="s">
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="53" t="s">
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+      <c r="AZ17" s="57"/>
+      <c r="BA17" s="57"/>
+      <c r="BB17" s="57"/>
+      <c r="BC17" s="57"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -30783,62 +30836,62 @@
       <c r="HI17" s="3"/>
       <c r="HJ17" s="3"/>
     </row>
-    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
+    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="CP18" s="3"/>
@@ -30967,80 +31020,80 @@
       <c r="HI18" s="3"/>
       <c r="HJ18" s="3"/>
     </row>
-    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="28" t="s">
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="56" t="s">
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="28" t="s">
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="56" t="s">
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="57" t="s">
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="56" t="s">
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="30" t="s">
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
       <c r="BF19" s="3"/>
@@ -31184,70 +31237,70 @@
       <c r="GU19" s="3"/>
       <c r="GV19" s="3"/>
     </row>
-    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="56" t="s">
+    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="56" t="s">
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="54"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
     </row>
-    <row r="21" spans="1:218" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -31306,7 +31359,7 @@
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
     </row>
-    <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>9</v>
       </c>
@@ -31373,7 +31426,7 @@
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
     </row>
-    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -31432,7 +31485,7 @@
       <c r="BD23" s="7"/>
       <c r="BE23" s="7"/>
     </row>
-    <row r="24" spans="1:218" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -31491,860 +31544,860 @@
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
     </row>
-    <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26" t="s">
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="37" t="s">
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="26" t="s">
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="26"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
     </row>
-    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
+    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
     </row>
-    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="40" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="41" t="s">
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="42" t="s">
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
     </row>
-    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="40" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43" t="s">
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="41" t="s">
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="42" t="s">
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="43"/>
     </row>
-    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="40" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43" t="s">
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="41" t="s">
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="42" t="s">
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
     </row>
-    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="40" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43" t="s">
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="41" t="s">
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="42" t="s">
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="43"/>
     </row>
-    <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="40" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43" t="s">
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="41" t="s">
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="42" t="s">
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
     </row>
-    <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="40" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43" t="s">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="41" t="s">
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="42" t="s">
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="43"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="43"/>
     </row>
-    <row r="33" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="40" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="41" t="s">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="42" t="s">
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="43"/>
+      <c r="BA33" s="43"/>
+      <c r="BB33" s="43"/>
+      <c r="BC33" s="43"/>
     </row>
-    <row r="34" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+    <row r="34" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="40" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43" t="s">
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="41" t="s">
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="42" t="s">
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="43"/>
+      <c r="BA34" s="43"/>
+      <c r="BB34" s="43"/>
+      <c r="BC34" s="43"/>
     </row>
-    <row r="35" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="42"/>
-      <c r="AJ35" s="42"/>
-      <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="42"/>
-      <c r="AV35" s="42"/>
-      <c r="AW35" s="42"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="42"/>
-      <c r="AZ35" s="42"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
+    <row r="35" spans="1:55" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="43"/>
     </row>
-    <row r="37" spans="1:55" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+    <row r="37" spans="1:55" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="28" t="s">
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="56" t="s">
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="28" t="s">
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="56" t="s">
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="57" t="s">
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="52"/>
+      <c r="AN37" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="56" t="s">
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="53"/>
+      <c r="AS37" s="53"/>
+      <c r="AT37" s="53"/>
+      <c r="AU37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AV37" s="56"/>
-      <c r="AW37" s="56"/>
-      <c r="AX37" s="30" t="s">
+      <c r="AV37" s="52"/>
+      <c r="AW37" s="52"/>
+      <c r="AX37" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
     </row>
-    <row r="38" spans="1:55" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="57"/>
-      <c r="AJ38" s="57"/>
-      <c r="AK38" s="56" t="s">
+    <row r="38" spans="1:55" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="57"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="56" t="s">
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="52"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="53"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="53"/>
+      <c r="AS38" s="53"/>
+      <c r="AT38" s="53"/>
+      <c r="AU38" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="58"/>
-      <c r="BA38" s="58"/>
-      <c r="BB38" s="58"/>
-      <c r="BC38" s="58"/>
+      <c r="AV38" s="52"/>
+      <c r="AW38" s="52"/>
+      <c r="AX38" s="54"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
     </row>
-    <row r="39" spans="1:55" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -32401,7 +32454,7 @@
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>9</v>
       </c>
@@ -32466,7 +32519,7 @@
       <c r="BB40" s="47"/>
       <c r="BC40" s="47"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -32523,7 +32576,7 @@
       <c r="BB41" s="48"/>
       <c r="BC41" s="48"/>
     </row>
-    <row r="42" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -32580,589 +32633,616 @@
       <c r="BB42" s="8"/>
       <c r="BC42" s="8"/>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26" t="s">
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="37" t="s">
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="26" t="s">
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="28"/>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="26"/>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="28"/>
+      <c r="AY44" s="28"/>
+      <c r="AZ44" s="28"/>
+      <c r="BA44" s="28"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="28"/>
     </row>
-    <row r="45" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="40" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43" t="s">
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="41" t="s">
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="42" t="s">
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
-      <c r="AU45" s="42"/>
-      <c r="AV45" s="42"/>
-      <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="42"/>
-      <c r="AZ45" s="42"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="43"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="43"/>
+      <c r="AS45" s="43"/>
+      <c r="AT45" s="43"/>
+      <c r="AU45" s="43"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="43"/>
+      <c r="AY45" s="43"/>
+      <c r="AZ45" s="43"/>
+      <c r="BA45" s="43"/>
+      <c r="BB45" s="43"/>
+      <c r="BC45" s="43"/>
     </row>
-    <row r="46" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+    <row r="46" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="40" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43" t="s">
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="41" t="s">
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="42" t="s">
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="42"/>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="42"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="43"/>
+      <c r="AP46" s="43"/>
+      <c r="AQ46" s="43"/>
+      <c r="AR46" s="43"/>
+      <c r="AS46" s="43"/>
+      <c r="AT46" s="43"/>
+      <c r="AU46" s="43"/>
+      <c r="AV46" s="43"/>
+      <c r="AW46" s="43"/>
+      <c r="AX46" s="43"/>
+      <c r="AY46" s="43"/>
+      <c r="AZ46" s="43"/>
+      <c r="BA46" s="43"/>
+      <c r="BB46" s="43"/>
+      <c r="BC46" s="43"/>
     </row>
-    <row r="47" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+    <row r="47" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="40" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43" t="s">
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="41" t="s">
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="42" t="s">
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="43"/>
+      <c r="AJ47" s="43"/>
+      <c r="AK47" s="43"/>
+      <c r="AL47" s="43"/>
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="43"/>
+      <c r="AP47" s="43"/>
+      <c r="AQ47" s="43"/>
+      <c r="AR47" s="43"/>
+      <c r="AS47" s="43"/>
+      <c r="AT47" s="43"/>
+      <c r="AU47" s="43"/>
+      <c r="AV47" s="43"/>
+      <c r="AW47" s="43"/>
+      <c r="AX47" s="43"/>
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="43"/>
+      <c r="BA47" s="43"/>
+      <c r="BB47" s="43"/>
+      <c r="BC47" s="43"/>
     </row>
-    <row r="48" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+    <row r="48" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="40" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43" t="s">
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="41" t="s">
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="42" t="s">
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="43"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="43"/>
+      <c r="AP48" s="43"/>
+      <c r="AQ48" s="43"/>
+      <c r="AR48" s="43"/>
+      <c r="AS48" s="43"/>
+      <c r="AT48" s="43"/>
+      <c r="AU48" s="43"/>
+      <c r="AV48" s="43"/>
+      <c r="AW48" s="43"/>
+      <c r="AX48" s="43"/>
+      <c r="AY48" s="43"/>
+      <c r="AZ48" s="43"/>
+      <c r="BA48" s="43"/>
+      <c r="BB48" s="43"/>
+      <c r="BC48" s="43"/>
     </row>
-    <row r="49" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="40" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43" t="s">
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="41" t="s">
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="42" t="s">
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
-      <c r="AU49" s="42"/>
-      <c r="AV49" s="42"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="42"/>
-      <c r="BA49" s="42"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="43"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="43"/>
+      <c r="AP49" s="43"/>
+      <c r="AQ49" s="43"/>
+      <c r="AR49" s="43"/>
+      <c r="AS49" s="43"/>
+      <c r="AT49" s="43"/>
+      <c r="AU49" s="43"/>
+      <c r="AV49" s="43"/>
+      <c r="AW49" s="43"/>
+      <c r="AX49" s="43"/>
+      <c r="AY49" s="43"/>
+      <c r="AZ49" s="43"/>
+      <c r="BA49" s="43"/>
+      <c r="BB49" s="43"/>
+      <c r="BC49" s="43"/>
     </row>
-    <row r="50" spans="1:55" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="42"/>
-      <c r="AO50" s="42"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-      <c r="AT50" s="42"/>
-      <c r="AU50" s="42"/>
-      <c r="AV50" s="42"/>
-      <c r="AW50" s="42"/>
-      <c r="AX50" s="42"/>
-      <c r="AY50" s="42"/>
-      <c r="AZ50" s="42"/>
-      <c r="BA50" s="42"/>
-      <c r="BB50" s="42"/>
-      <c r="BC50" s="42"/>
+    <row r="50" spans="1:55" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="42"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="43"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="43"/>
+      <c r="AP50" s="43"/>
+      <c r="AQ50" s="43"/>
+      <c r="AR50" s="43"/>
+      <c r="AS50" s="43"/>
+      <c r="AT50" s="43"/>
+      <c r="AU50" s="43"/>
+      <c r="AV50" s="43"/>
+      <c r="AW50" s="43"/>
+      <c r="AX50" s="43"/>
+      <c r="AY50" s="43"/>
+      <c r="AZ50" s="43"/>
+      <c r="BA50" s="43"/>
+      <c r="BB50" s="43"/>
+      <c r="BC50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="I50:P50"/>
-    <mergeCell ref="Q50:V50"/>
-    <mergeCell ref="W50:AD50"/>
-    <mergeCell ref="AE50:BC50"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="I49:P49"/>
-    <mergeCell ref="Q49:V49"/>
-    <mergeCell ref="W49:AD49"/>
-    <mergeCell ref="AE49:BC49"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:P48"/>
-    <mergeCell ref="Q48:V48"/>
-    <mergeCell ref="W48:AD48"/>
-    <mergeCell ref="AE48:BC48"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I47:P47"/>
-    <mergeCell ref="Q47:V47"/>
-    <mergeCell ref="W47:AD47"/>
-    <mergeCell ref="AE47:BC47"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="I45:P45"/>
-    <mergeCell ref="Q45:V45"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="AE45:BC45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="I46:P46"/>
-    <mergeCell ref="Q46:V46"/>
-    <mergeCell ref="W46:AD46"/>
-    <mergeCell ref="AE46:BC46"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="F40:W41"/>
-    <mergeCell ref="X40:AB41"/>
-    <mergeCell ref="AC40:BC41"/>
-    <mergeCell ref="A43:H44"/>
-    <mergeCell ref="I43:P44"/>
-    <mergeCell ref="Q43:V44"/>
-    <mergeCell ref="W43:AD44"/>
-    <mergeCell ref="AE43:BC44"/>
-    <mergeCell ref="A37:J38"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB37:AJ37"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AN37:AT37"/>
-    <mergeCell ref="AU37:AW37"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="O38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="AB38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AT38"/>
-    <mergeCell ref="AU38:AW38"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="I33:P33"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="AE17:BC17"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="Q35:V35"/>
+    <mergeCell ref="W35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="W33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="W34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="AC22:BC23"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:W23"/>
+    <mergeCell ref="X22:AB23"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="I25:P26"/>
+    <mergeCell ref="Q25:V26"/>
+    <mergeCell ref="W25:AD26"/>
+    <mergeCell ref="AE25:BC26"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="Q7:V8"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="W18:AD18"/>
+    <mergeCell ref="AE18:BC18"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:BC5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
     <mergeCell ref="I7:P8"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="A17:H17"/>
@@ -33187,44 +33267,15 @@
     <mergeCell ref="W11:AD11"/>
     <mergeCell ref="W12:AD12"/>
     <mergeCell ref="I12:P12"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="Q7:V8"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="AE7:BC8"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="W18:AD18"/>
-    <mergeCell ref="AE18:BC18"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="W17:AD17"/>
+    <mergeCell ref="AE17:BC17"/>
+    <mergeCell ref="W13:AD13"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="W16:AD16"/>
     <mergeCell ref="A19:J20"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="O19:W19"/>
@@ -33240,64 +33291,66 @@
     <mergeCell ref="AB20:AJ20"/>
     <mergeCell ref="AK20:AM20"/>
     <mergeCell ref="AN20:AT20"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AX20:BC20"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="F22:W23"/>
-    <mergeCell ref="X22:AB23"/>
-    <mergeCell ref="A25:H26"/>
-    <mergeCell ref="I25:P26"/>
-    <mergeCell ref="Q25:V26"/>
-    <mergeCell ref="W25:AD26"/>
-    <mergeCell ref="AE25:BC26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="AC22:BC23"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="W31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="Q35:V35"/>
-    <mergeCell ref="W35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="W32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="W33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="W34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="A37:J38"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB37:AJ37"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AN37:AT37"/>
+    <mergeCell ref="AU37:AW37"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="O38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AB38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AT38"/>
+    <mergeCell ref="AU38:AW38"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="A40:E41"/>
+    <mergeCell ref="F40:W41"/>
+    <mergeCell ref="X40:AB41"/>
+    <mergeCell ref="AC40:BC41"/>
+    <mergeCell ref="A43:H44"/>
+    <mergeCell ref="I43:P44"/>
+    <mergeCell ref="Q43:V44"/>
+    <mergeCell ref="W43:AD44"/>
+    <mergeCell ref="AE43:BC44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="I45:P45"/>
+    <mergeCell ref="Q45:V45"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AE45:BC45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="I46:P46"/>
+    <mergeCell ref="Q46:V46"/>
+    <mergeCell ref="W46:AD46"/>
+    <mergeCell ref="AE46:BC46"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="Q48:V48"/>
+    <mergeCell ref="W48:AD48"/>
+    <mergeCell ref="AE48:BC48"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="Q47:V47"/>
+    <mergeCell ref="W47:AD47"/>
+    <mergeCell ref="AE47:BC47"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="I50:P50"/>
+    <mergeCell ref="Q50:V50"/>
+    <mergeCell ref="W50:AD50"/>
+    <mergeCell ref="AE50:BC50"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="I49:P49"/>
+    <mergeCell ref="Q49:V49"/>
+    <mergeCell ref="W49:AD49"/>
+    <mergeCell ref="AE49:BC49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q18 Q45:Q50 Q27:Q35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q18 Q45:Q50 Q27:Q35" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -33313,60 +33366,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -33387,6 +33440,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -33518,12 +33577,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F47AB981-5465-4A5E-B3A4-3DEA8C6872DF}">
   <ds:schemaRefs>
@@ -33533,6 +33586,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35677D65-3D0F-490F-83A5-B1CF9CE32A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED4C903-48AC-4CC9-AF40-0B10C457B2BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33548,13 +33610,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35677D65-3D0F-490F-83A5-B1CF9CE32A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>